--- a/pearson_tables/t2m_netherlands-2-6.xlsx
+++ b/pearson_tables/t2m_netherlands-2-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7415662614671105</v>
+        <v>0.7169166111259846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7461883522602887</v>
+        <v>-0.769951142914251</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7803812700245091</v>
+        <v>0.81811524812827</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8418490012866208</v>
+        <v>0.8247668291515247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8121720196491619</v>
+        <v>-0.8638716263040771</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8559951778621258</v>
+        <v>0.7044915131233094</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.795954276587885</v>
+        <v>-0.7316417397939979</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7168627851614816</v>
+        <v>-0.8040945298166184</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7538383025613512</v>
+        <v>0.7861097633820693</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7914401055713453</v>
+        <v>0.7557354537191054</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7583137938950597</v>
+        <v>0.7016553533637517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6102110193500039</v>
+        <v>0.5881177338195093</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8265448286960453</v>
+        <v>-0.7833197689211761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.802858386242843</v>
+        <v>-0.7456114469046508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6543119735043139</v>
+        <v>0.5972052172252177</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7053278286486361</v>
+        <v>0.6812417260515466</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.592782543161665</v>
+        <v>-0.6780949752640816</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5703545501367718</v>
+        <v>-0.5882442160195755</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7676636860136754</v>
+        <v>-0.7604195397640003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7849436865418894</v>
+        <v>0.7695151871108438</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7418050781598431</v>
+        <v>-0.6103447749713604</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8104672664806718</v>
+        <v>-0.8024343564222106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8468293829205755</v>
+        <v>0.8619570517734312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8185539701971236</v>
+        <v>0.8295627460520123</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-6.xlsx
+++ b/pearson_tables/t2m_netherlands-2-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7169166111259846</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.769951142914251</v>
+        <v>-0.8127810846533238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.81811524812827</v>
+        <v>0.7512506727001143</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8247668291515247</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8638716263040771</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7044915131233094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7316417397939979</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8040945298166184</v>
+        <v>0.7890902412313365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7861097633820693</v>
+        <v>0.7242029148177772</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7557354537191054</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7016553533637517</v>
+        <v>0.7432027668855248</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5881177338195093</v>
+        <v>0.7176548363381191</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7833197689211761</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7456114469046508</v>
+        <v>0.7751198501047998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5972052172252177</v>
+        <v>-0.7812359619930944</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6812417260515466</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6780949752640816</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5882442160195755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7604195397640003</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7695151871108438</v>
+        <v>-0.8201281856513709</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6103447749713604</v>
+        <v>0.8481888557945662</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8024343564222106</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8619570517734312</v>
+        <v>0.8403027920443081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8295627460520123</v>
+        <v>0.827733620692871</v>
       </c>
     </row>
   </sheetData>
